--- a/text/画面定義書_M0006発注画面.xlsx
+++ b/text/画面定義書_M0006発注画面.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4304EC-6C04-4588-B4B0-783F8F026E09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA0289-A3E7-144F-96FE-3067617D7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="500" windowWidth="22600" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -482,7 +482,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -493,7 +493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -531,7 +531,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -695,7 +695,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -926,17 +926,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -945,7 +945,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -953,20 +953,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -975,7 +975,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -983,7 +983,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -991,7 +991,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -999,7 +999,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1144,7 +1144,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1166,7 +1166,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1495,9 +1495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1535,9 +1535,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1570,26 +1570,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,26 +1605,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1817,54 +1783,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" customWidth="1"/>
+    <col min="7" max="7" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6">
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6">
       <c r="F18" s="12"/>
     </row>
-    <row r="24" spans="6:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6" ht="45">
       <c r="F24" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1873,13 +1839,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="13" t="s">
         <v>2</v>
       </c>
@@ -1902,12 +1868,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="17" customFormat="1">
       <c r="A51" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="45">
       <c r="A52" s="14">
         <v>1</v>
       </c>
@@ -1930,7 +1896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="5" customFormat="1">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -1951,7 +1917,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="5" customFormat="1">
       <c r="A54" s="6">
         <v>3</v>
       </c>
@@ -1972,7 +1938,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="5" customFormat="1">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -1981,12 +1947,12 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="17" customFormat="1">
       <c r="A56" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="5" customFormat="1">
       <c r="A57" s="6">
         <v>4</v>
       </c>
@@ -2007,7 +1973,7 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="44" customHeight="1">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -2030,7 +1996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="5" customFormat="1">
       <c r="A59" s="6">
         <v>6</v>
       </c>
@@ -2051,7 +2017,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="5" customFormat="1">
       <c r="A60" s="6">
         <v>7</v>
       </c>
@@ -2072,7 +2038,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="5" customFormat="1">
       <c r="A61" s="6">
         <v>8</v>
       </c>
@@ -2093,7 +2059,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="5" customFormat="1">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -2114,7 +2080,7 @@
       </c>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="5" customFormat="1">
       <c r="A63" s="6">
         <v>10</v>
       </c>
@@ -2135,7 +2101,7 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="5" customFormat="1">
       <c r="A64" s="6">
         <v>11</v>
       </c>
@@ -2156,7 +2122,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
       <c r="A65" s="6">
         <v>12</v>
       </c>
@@ -2179,17 +2145,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="17" customFormat="1">
       <c r="A69" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1">
       <c r="A70" s="6">
         <v>13</v>
       </c>
@@ -2212,28 +2178,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="21" customFormat="1">
       <c r="A74" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="21" customFormat="1">
       <c r="A75" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="21" customFormat="1">
       <c r="B76" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="22" customFormat="1"/>
+    <row r="78" spans="1:7" s="22" customFormat="1">
       <c r="B78" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:7" s="22" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2246,23 +2212,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2271,7 +2237,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2282,7 +2248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2293,7 +2259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2304,7 +2270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2325,22 +2291,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2323,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2340,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2355,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
         <v>86</v>
       </c>
@@ -2404,7 +2370,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2417,7 +2383,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2430,7 +2396,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2443,7 +2409,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2456,7 +2422,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2469,7 +2435,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -2482,7 +2448,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -2495,7 +2461,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2508,7 +2474,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2521,7 +2487,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -2534,7 +2500,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2547,7 +2513,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2560,7 +2526,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2573,7 +2539,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2586,7 +2552,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2599,7 +2565,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -2612,7 +2578,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -2645,18 +2611,18 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2673,7 +2639,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2656,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2671,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
         <v>85</v>
       </c>
@@ -2720,7 +2686,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2733,7 +2699,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2746,7 +2712,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2759,7 +2725,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2772,7 +2738,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2785,7 +2751,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -2798,7 +2764,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -2811,7 +2777,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2824,7 +2790,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2837,7 +2803,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -2850,7 +2816,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2863,7 +2829,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2876,7 +2842,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2889,7 +2855,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2902,7 +2868,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2933,18 +2899,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2961,7 +2927,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2978,7 +2944,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
@@ -2993,7 +2959,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
         <v>87</v>
       </c>
@@ -3008,7 +2974,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -3021,7 +2987,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -3034,7 +3000,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3047,7 +3013,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -3060,7 +3026,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -3073,7 +3039,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -3086,7 +3052,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -3099,7 +3065,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -3112,7 +3078,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -3125,7 +3091,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3138,7 +3104,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3151,7 +3117,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3164,7 +3130,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3177,7 +3143,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3190,7 +3156,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3203,7 +3169,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3216,7 +3182,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3229,7 +3195,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3242,7 +3208,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3255,7 +3221,7 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3268,7 +3234,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>

--- a/text/画面定義書_M0006発注画面.xlsx
+++ b/text/画面定義書_M0006発注画面.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA0289-A3E7-144F-96FE-3067617D7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118AD507-0E9F-4737-880E-F241EB54AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="500" windowWidth="22600" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -482,7 +482,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -493,7 +493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -531,7 +531,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -695,7 +695,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -926,17 +926,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -945,7 +945,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -953,20 +953,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -975,7 +975,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -983,7 +983,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -991,7 +991,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -999,7 +999,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1166,7 +1166,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1783,54 +1783,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="12"/>
     </row>
-    <row r="24" spans="6:6" ht="45">
+    <row r="24" spans="6:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="F24" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1839,13 +1839,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>2</v>
       </c>
@@ -1868,12 +1868,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1">
+    <row r="51" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="45">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>1</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1">
+    <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1">
+    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>3</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1">
+    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -1947,12 +1947,12 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" s="17" customFormat="1">
+    <row r="56" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>4</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" ht="44" customHeight="1">
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1">
+    <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>6</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
+    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>7</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1">
+    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1">
+    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1">
+    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>10</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1">
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>11</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>12</v>
       </c>
@@ -2145,17 +2145,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="17" customFormat="1">
+    <row r="69" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1">
+    <row r="70" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>13</v>
       </c>
@@ -2178,28 +2178,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="21" customFormat="1">
+    <row r="74" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="21" customFormat="1">
+    <row r="75" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="21" customFormat="1">
+    <row r="76" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="22" customFormat="1"/>
-    <row r="78" spans="1:7" s="22" customFormat="1">
+    <row r="77" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="22" customFormat="1"/>
+    <row r="79" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,19 +2216,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2291,22 +2291,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>86</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2383,7 +2383,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2396,7 +2396,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2409,7 +2409,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2422,7 +2422,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2435,7 +2435,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -2448,7 +2448,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -2461,7 +2461,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2474,7 +2474,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2487,7 +2487,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -2500,7 +2500,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2513,7 +2513,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2526,7 +2526,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2539,7 +2539,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2552,7 +2552,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2565,7 +2565,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -2578,7 +2578,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -2608,21 +2608,21 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B6" sqref="B6:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>85</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2699,7 +2699,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2712,7 +2712,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2725,7 +2725,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2738,7 +2738,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2751,7 +2751,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -2764,7 +2764,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -2777,7 +2777,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2790,7 +2790,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2803,7 +2803,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -2816,7 +2816,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2829,7 +2829,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2842,7 +2842,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2855,7 +2855,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2868,7 +2868,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2897,20 +2897,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2929,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2944,7 +2946,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +2961,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>87</v>
       </c>
@@ -2974,7 +2976,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2987,7 +2989,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -3000,7 +3002,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3013,7 +3015,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -3026,7 +3028,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -3039,7 +3041,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -3052,7 +3054,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -3065,7 +3067,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -3078,7 +3080,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -3091,7 +3093,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3104,7 +3106,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3117,7 +3119,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3130,7 +3132,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3143,7 +3145,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3156,7 +3158,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3169,7 +3171,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3182,7 +3184,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3195,7 +3197,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3208,7 +3210,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3221,7 +3223,7 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3234,7 +3236,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
